--- a/outcome/appendix/data/forecast/AIDS.xlsx
+++ b/outcome/appendix/data/forecast/AIDS.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">艾滋病</t>
+    <t xml:space="preserve">AIDS</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3498.74675833293</v>
+        <v>3819.37336855632</v>
       </c>
       <c r="C2" t="n">
-        <v>2873.09001755036</v>
+        <v>3066.66200070416</v>
       </c>
       <c r="D2" t="n">
-        <v>2541.88734542476</v>
+        <v>2668.200671797</v>
       </c>
       <c r="E2" t="n">
-        <v>4124.4034991155</v>
+        <v>4572.08473640847</v>
       </c>
       <c r="F2" t="n">
-        <v>4455.60617124109</v>
+        <v>4970.54606531564</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2759</v>
       </c>
       <c r="I2" t="n">
-        <v>739.746758332928</v>
+        <v>1060.37336855632</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3533.93558964181</v>
+        <v>3773.35374736804</v>
       </c>
       <c r="C3" t="n">
-        <v>2788.36949852261</v>
+        <v>2975.76406803646</v>
       </c>
       <c r="D3" t="n">
-        <v>2393.69065063543</v>
+        <v>2553.54559609288</v>
       </c>
       <c r="E3" t="n">
-        <v>4279.50168076101</v>
+        <v>4570.94342669962</v>
       </c>
       <c r="F3" t="n">
-        <v>4674.18052864819</v>
+        <v>4993.16189864321</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>2133</v>
       </c>
       <c r="I3" t="n">
-        <v>1400.93558964181</v>
+        <v>1640.35374736804</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>5947.70578519683</v>
+        <v>6165.99743310827</v>
       </c>
       <c r="C4" t="n">
-        <v>5188.88723370771</v>
+        <v>5336.50742357849</v>
       </c>
       <c r="D4" t="n">
-        <v>4787.19295707079</v>
+        <v>4897.40193689562</v>
       </c>
       <c r="E4" t="n">
-        <v>6706.52433668594</v>
+        <v>6995.48744263805</v>
       </c>
       <c r="F4" t="n">
-        <v>7108.21861332286</v>
+        <v>7434.59292932092</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4808</v>
       </c>
       <c r="I4" t="n">
-        <v>1139.70578519683</v>
+        <v>1357.99743310827</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5768.78144496191</v>
+        <v>6082.68992163548</v>
       </c>
       <c r="C5" t="n">
-        <v>4979.14143388525</v>
+        <v>5230.17878067325</v>
       </c>
       <c r="D5" t="n">
-        <v>4561.13126211159</v>
+        <v>4778.8866431501</v>
       </c>
       <c r="E5" t="n">
-        <v>6558.42145603857</v>
+        <v>6935.20106259771</v>
       </c>
       <c r="F5" t="n">
-        <v>6976.43162781223</v>
+        <v>7386.49320012085</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>5960</v>
       </c>
       <c r="I5" t="n">
-        <v>-191.21855503809</v>
+        <v>122.689921635478</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6334.3621070258</v>
+        <v>6355.66677255271</v>
       </c>
       <c r="C6" t="n">
-        <v>5506.84366556563</v>
+        <v>5486.37860940427</v>
       </c>
       <c r="D6" t="n">
-        <v>5068.78186397455</v>
+        <v>5026.20525280974</v>
       </c>
       <c r="E6" t="n">
-        <v>7161.88054848597</v>
+        <v>7224.95493570115</v>
       </c>
       <c r="F6" t="n">
-        <v>7599.94235007706</v>
+        <v>7685.12829229569</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5484</v>
       </c>
       <c r="I6" t="n">
-        <v>850.362107025801</v>
+        <v>871.666772552712</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6673.91435976775</v>
+        <v>6781.0330972428</v>
       </c>
       <c r="C7" t="n">
-        <v>5830.22734128792</v>
+        <v>5899.43724820956</v>
       </c>
       <c r="D7" t="n">
-        <v>5383.60641204054</v>
+        <v>5432.74859626691</v>
       </c>
       <c r="E7" t="n">
-        <v>7517.60137824758</v>
+        <v>7662.62894627605</v>
       </c>
       <c r="F7" t="n">
-        <v>7964.22230749496</v>
+        <v>8129.31759821869</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6915</v>
       </c>
       <c r="I7" t="n">
-        <v>-241.085640232251</v>
+        <v>-133.9669027572</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6612.57675288695</v>
+        <v>6858.7398083598</v>
       </c>
       <c r="C8" t="n">
-        <v>5758.89043338418</v>
+        <v>5968.07353342957</v>
       </c>
       <c r="D8" t="n">
-        <v>5306.97619392002</v>
+        <v>5496.58328805945</v>
       </c>
       <c r="E8" t="n">
-        <v>7466.26307238972</v>
+        <v>7749.40608329003</v>
       </c>
       <c r="F8" t="n">
-        <v>7918.17731185389</v>
+        <v>8220.89632866015</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5166</v>
       </c>
       <c r="I8" t="n">
-        <v>1446.57675288695</v>
+        <v>1692.7398083598</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,28 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>6545.31937493872</v>
+        <v>6542.97027948926</v>
       </c>
       <c r="C9" t="n">
-        <v>5681.19875132534</v>
+        <v>5645.59783577357</v>
       </c>
       <c r="D9" t="n">
-        <v>5223.76092491974</v>
+        <v>5170.55755908965</v>
       </c>
       <c r="E9" t="n">
-        <v>7409.43999855211</v>
+        <v>7440.34272320494</v>
       </c>
       <c r="F9" t="n">
-        <v>7866.87782495771</v>
+        <v>7915.38299988887</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>6124</v>
+        <v>5166</v>
       </c>
       <c r="I9" t="n">
-        <v>421.319374938723</v>
+        <v>1376.97027948926</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6773.15117609828</v>
+        <v>6677.8500954163</v>
       </c>
       <c r="C10" t="n">
-        <v>5901.3446319459</v>
+        <v>5775.50833446073</v>
       </c>
       <c r="D10" t="n">
-        <v>5439.83812497742</v>
+        <v>5297.83746013244</v>
       </c>
       <c r="E10" t="n">
-        <v>7644.95772025066</v>
+        <v>7580.19185637186</v>
       </c>
       <c r="F10" t="n">
-        <v>8106.46422721914</v>
+        <v>8057.86273070015</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6927</v>
       </c>
       <c r="I10" t="n">
-        <v>-153.848823901721</v>
+        <v>-249.149904583704</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6519.96211347315</v>
+        <v>6319.71993952548</v>
       </c>
       <c r="C11" t="n">
-        <v>5643.34764655362</v>
+        <v>5413.69029499941</v>
       </c>
       <c r="D11" t="n">
-        <v>5179.29597901376</v>
+        <v>4934.06717303528</v>
       </c>
       <c r="E11" t="n">
-        <v>7396.57658039267</v>
+        <v>7225.74958405155</v>
       </c>
       <c r="F11" t="n">
-        <v>7860.62824793253</v>
+        <v>7705.37270601568</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4546</v>
       </c>
       <c r="I11" t="n">
-        <v>1973.96211347315</v>
+        <v>1773.71993952548</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7959.21326768109</v>
+        <v>7556.15577718165</v>
       </c>
       <c r="C12" t="n">
-        <v>7078.86435877881</v>
+        <v>6647.3867712462</v>
       </c>
       <c r="D12" t="n">
-        <v>6612.83579706845</v>
+        <v>6166.31351894771</v>
       </c>
       <c r="E12" t="n">
-        <v>8839.56217658337</v>
+        <v>8464.9247831171</v>
       </c>
       <c r="F12" t="n">
-        <v>9305.59073829373</v>
+        <v>8945.99803541559</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5824</v>
       </c>
       <c r="I12" t="n">
-        <v>2135.21326768109</v>
+        <v>1732.15577718165</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7722.68499381226</v>
+        <v>7387.9557293593</v>
       </c>
       <c r="C13" t="n">
-        <v>6839.34222768171</v>
+        <v>6477.15133049648</v>
       </c>
       <c r="D13" t="n">
-        <v>6371.72881368842</v>
+        <v>5995.00060626741</v>
       </c>
       <c r="E13" t="n">
-        <v>8606.02775994281</v>
+        <v>8298.76012822211</v>
       </c>
       <c r="F13" t="n">
-        <v>9073.6411739361</v>
+        <v>8780.91085245118</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>6508</v>
       </c>
       <c r="I13" t="n">
-        <v>1214.68499381226</v>
+        <v>879.955729359295</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4102.65193634981</v>
+        <v>4353.06791252944</v>
       </c>
       <c r="C14" t="n">
-        <v>3120.34556996977</v>
+        <v>3312.6976134714</v>
       </c>
       <c r="D14" t="n">
-        <v>2600.34399053483</v>
+        <v>2761.95884477031</v>
       </c>
       <c r="E14" t="n">
-        <v>5084.95830272985</v>
+        <v>5393.43821158749</v>
       </c>
       <c r="F14" t="n">
-        <v>5604.95988216479</v>
+        <v>5944.17698028858</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3260</v>
       </c>
       <c r="I14" t="n">
-        <v>842.65193634981</v>
+        <v>1093.06791252944</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4093.85454634278</v>
+        <v>4294.83776110725</v>
       </c>
       <c r="C15" t="n">
-        <v>3069.3518584519</v>
+        <v>3234.80274369251</v>
       </c>
       <c r="D15" t="n">
-        <v>2527.0128957087</v>
+        <v>2673.6541019064</v>
       </c>
       <c r="E15" t="n">
-        <v>5118.35723423365</v>
+        <v>5354.87277852199</v>
       </c>
       <c r="F15" t="n">
-        <v>5660.69619697685</v>
+        <v>5916.0214203081</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3051</v>
       </c>
       <c r="I15" t="n">
-        <v>1042.85454634278</v>
+        <v>1243.83776110725</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6554.41515114469</v>
+        <v>6621.95344171946</v>
       </c>
       <c r="C16" t="n">
-        <v>5521.82526671066</v>
+        <v>5547.48270741831</v>
       </c>
       <c r="D16" t="n">
-        <v>4975.20520071945</v>
+        <v>4978.69225871928</v>
       </c>
       <c r="E16" t="n">
-        <v>7587.00503557872</v>
+        <v>7696.4241760206</v>
       </c>
       <c r="F16" t="n">
-        <v>8133.62510156993</v>
+        <v>8265.21462471963</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>5951</v>
       </c>
       <c r="I16" t="n">
-        <v>603.415151144692</v>
+        <v>670.953441719459</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6538.40980377482</v>
+        <v>6416.84490807216</v>
       </c>
       <c r="C17" t="n">
-        <v>5492.186637848</v>
+        <v>5331.73023470789</v>
       </c>
       <c r="D17" t="n">
-        <v>4938.34954858201</v>
+        <v>4757.305225027</v>
       </c>
       <c r="E17" t="n">
-        <v>7584.63296970164</v>
+        <v>7501.95958143643</v>
       </c>
       <c r="F17" t="n">
-        <v>8138.47005896762</v>
+        <v>8076.38459111732</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5283</v>
       </c>
       <c r="I17" t="n">
-        <v>1255.40980377482</v>
+        <v>1133.84490807216</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6885.61537999706</v>
+        <v>6761.84653410058</v>
       </c>
       <c r="C18" t="n">
-        <v>5824.06491405562</v>
+        <v>5668.8592698503</v>
       </c>
       <c r="D18" t="n">
-        <v>5262.11404227854</v>
+        <v>5090.26676229392</v>
       </c>
       <c r="E18" t="n">
-        <v>7947.1658459385</v>
+        <v>7854.83379835086</v>
       </c>
       <c r="F18" t="n">
-        <v>8509.11671771559</v>
+        <v>8433.42630590724</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5047</v>
       </c>
       <c r="I18" t="n">
-        <v>1838.61537999706</v>
+        <v>1714.84653410058</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7237.23784995371</v>
+        <v>7196.05847348854</v>
       </c>
       <c r="C19" t="n">
-        <v>6168.21353600821</v>
+        <v>6097.23553583381</v>
       </c>
       <c r="D19" t="n">
-        <v>5602.30624808684</v>
+        <v>5515.55380938276</v>
       </c>
       <c r="E19" t="n">
-        <v>8306.26216389921</v>
+        <v>8294.88141114326</v>
       </c>
       <c r="F19" t="n">
-        <v>8872.16945182057</v>
+        <v>8876.56313759431</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>5978</v>
       </c>
       <c r="I19" t="n">
-        <v>1259.23784995371</v>
+        <v>1218.05847348854</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7318.86354936415</v>
+        <v>7189.72744672778</v>
       </c>
       <c r="C20" t="n">
-        <v>6244.96374323298</v>
+        <v>6086.57205627374</v>
       </c>
       <c r="D20" t="n">
-        <v>5676.47552565073</v>
+        <v>5502.59686784832</v>
       </c>
       <c r="E20" t="n">
-        <v>8392.76335549532</v>
+        <v>8292.88283718182</v>
       </c>
       <c r="F20" t="n">
-        <v>8961.25157307758</v>
+        <v>8876.85802560724</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3373</v>
       </c>
       <c r="I20" t="n">
-        <v>3945.86354936415</v>
+        <v>3816.72744672778</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>7075.9158398568</v>
+        <v>6929.42956246734</v>
       </c>
       <c r="C21" t="n">
-        <v>5997.29274298758</v>
+        <v>5823.05444689311</v>
       </c>
       <c r="D21" t="n">
-        <v>5426.3041663239</v>
+        <v>5237.37483894527</v>
       </c>
       <c r="E21" t="n">
-        <v>8154.53893672603</v>
+        <v>8035.80467804158</v>
       </c>
       <c r="F21" t="n">
-        <v>8725.5275133897</v>
+        <v>8621.48428598941</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4710</v>
       </c>
       <c r="I21" t="n">
-        <v>2365.9158398568</v>
+        <v>2219.42956246734</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7227.5673614996</v>
+        <v>7090.00862048665</v>
       </c>
       <c r="C22" t="n">
-        <v>6145.44266968633</v>
+        <v>5981.23940129249</v>
       </c>
       <c r="D22" t="n">
-        <v>5572.60046062876</v>
+        <v>5394.29243144383</v>
       </c>
       <c r="E22" t="n">
-        <v>8309.69205331287</v>
+        <v>8198.77783968082</v>
       </c>
       <c r="F22" t="n">
-        <v>8882.53426237044</v>
+        <v>8785.72480952948</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5039</v>
       </c>
       <c r="I22" t="n">
-        <v>2188.5673614996</v>
+        <v>2051.00862048665</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6988.93722721613</v>
+        <v>6675.5034605713</v>
       </c>
       <c r="C23" t="n">
-        <v>5904.52544268548</v>
+        <v>5564.95395785286</v>
       </c>
       <c r="D23" t="n">
-        <v>5330.47251987704</v>
+        <v>4977.06456283405</v>
       </c>
       <c r="E23" t="n">
-        <v>8073.34901174678</v>
+        <v>7786.05296328975</v>
       </c>
       <c r="F23" t="n">
-        <v>8647.40193455522</v>
+        <v>8373.94235830856</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>5357</v>
       </c>
       <c r="I23" t="n">
-        <v>1631.93722721613</v>
+        <v>1318.5034605713</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>8316.5085711809</v>
+        <v>7931.08971466468</v>
       </c>
       <c r="C24" t="n">
-        <v>7230.33289296359</v>
+        <v>6819.21717033394</v>
       </c>
       <c r="D24" t="n">
-        <v>6655.34622124094</v>
+        <v>6230.6273993921</v>
       </c>
       <c r="E24" t="n">
-        <v>9402.68424939822</v>
+        <v>9042.96225899542</v>
       </c>
       <c r="F24" t="n">
-        <v>9977.67092112087</v>
+        <v>9631.55202993725</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>6493</v>
       </c>
       <c r="I24" t="n">
-        <v>1823.5085711809</v>
+        <v>1438.08971466468</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7920.78176032884</v>
+        <v>7920.92430836161</v>
       </c>
       <c r="C25" t="n">
-        <v>6833.21308664569</v>
+        <v>6808.0701049103</v>
       </c>
       <c r="D25" t="n">
-        <v>6257.48900766684</v>
+        <v>6218.96067502027</v>
       </c>
       <c r="E25" t="n">
-        <v>9008.350434012</v>
+        <v>9033.77851181292</v>
       </c>
       <c r="F25" t="n">
-        <v>9584.07451299084</v>
+        <v>9622.88794170296</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>7490</v>
       </c>
       <c r="I25" t="n">
-        <v>430.781760328841</v>
+        <v>430.924308361615</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4461.38596999111</v>
+        <v>4837.05552038937</v>
       </c>
       <c r="C26" t="n">
-        <v>3255.49581724776</v>
+        <v>3660.30367558471</v>
       </c>
       <c r="D26" t="n">
-        <v>2617.13613078617</v>
+        <v>3037.36887759861</v>
       </c>
       <c r="E26" t="n">
-        <v>5667.27612273447</v>
+        <v>6013.80736519403</v>
       </c>
       <c r="F26" t="n">
-        <v>6305.63580919606</v>
+        <v>6636.74216318013</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>3109</v>
       </c>
       <c r="I26" t="n">
-        <v>1352.38596999111</v>
+        <v>1728.05552038937</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4473.0323109896</v>
+        <v>4768.96905880772</v>
       </c>
       <c r="C27" t="n">
-        <v>3218.135061431</v>
+        <v>3582.06465087603</v>
       </c>
       <c r="D27" t="n">
-        <v>2553.83258500118</v>
+        <v>2953.75541061606</v>
       </c>
       <c r="E27" t="n">
-        <v>5727.92956054819</v>
+        <v>5955.87346673941</v>
       </c>
       <c r="F27" t="n">
-        <v>6392.23203697801</v>
+        <v>6584.18270699938</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>3364</v>
       </c>
       <c r="I27" t="n">
-        <v>1109.0323109896</v>
+        <v>1404.96905880772</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>6916.36184756171</v>
+        <v>7067.9221252793</v>
       </c>
       <c r="C28" t="n">
-        <v>5653.46539494127</v>
+        <v>5873.50017978856</v>
       </c>
       <c r="D28" t="n">
-        <v>4984.92839619872</v>
+        <v>5241.21139553095</v>
       </c>
       <c r="E28" t="n">
-        <v>8179.25830018215</v>
+        <v>8262.34407077004</v>
       </c>
       <c r="F28" t="n">
-        <v>8847.79529892471</v>
+        <v>8894.63285502764</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>5020</v>
       </c>
       <c r="I28" t="n">
-        <v>1896.36184756171</v>
+        <v>2047.9221252793</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6835.05667645603</v>
+        <v>6815.18641771553</v>
       </c>
       <c r="C29" t="n">
-        <v>5557.07170919862</v>
+        <v>5615.18731987814</v>
       </c>
       <c r="D29" t="n">
-        <v>4880.54733328833</v>
+        <v>4979.94616950721</v>
       </c>
       <c r="E29" t="n">
-        <v>8113.04164371344</v>
+        <v>8015.18551555292</v>
       </c>
       <c r="F29" t="n">
-        <v>8789.56601962373</v>
+        <v>8650.42666592385</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3837</v>
       </c>
       <c r="I29" t="n">
-        <v>2998.05667645603</v>
+        <v>2978.18641771553</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7273.63718587183</v>
+        <v>7182.38933369912</v>
       </c>
       <c r="C30" t="n">
-        <v>5977.93725306465</v>
+        <v>5978.24697048066</v>
       </c>
       <c r="D30" t="n">
-        <v>5292.03514085864</v>
+        <v>5340.81250790499</v>
       </c>
       <c r="E30" t="n">
-        <v>8569.33711867902</v>
+        <v>8386.53169691757</v>
       </c>
       <c r="F30" t="n">
-        <v>9255.23923088503</v>
+        <v>9023.96615949325</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>4490</v>
       </c>
       <c r="I30" t="n">
-        <v>2783.63718587183</v>
+        <v>2692.38933369912</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7621.59637591818</v>
+        <v>7616.70567709036</v>
       </c>
       <c r="C31" t="n">
-        <v>6317.58403088019</v>
+        <v>6409.48241284095</v>
       </c>
       <c r="D31" t="n">
-        <v>5627.28159344279</v>
+        <v>5770.41701977658</v>
       </c>
       <c r="E31" t="n">
-        <v>8925.60872095616</v>
+        <v>8823.92894133977</v>
       </c>
       <c r="F31" t="n">
-        <v>9615.91115839356</v>
+        <v>9462.99433440415</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>5626</v>
       </c>
       <c r="I31" t="n">
-        <v>1995.59637591818</v>
+        <v>1990.70567709036</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7645.51507103714</v>
+        <v>7577.70066680986</v>
       </c>
       <c r="C32" t="n">
-        <v>6336.1596732497</v>
+        <v>6368.18518301706</v>
       </c>
       <c r="D32" t="n">
-        <v>5643.02879453999</v>
+        <v>5727.90636222406</v>
       </c>
       <c r="E32" t="n">
-        <v>8954.87046882458</v>
+        <v>8787.21615060266</v>
       </c>
       <c r="F32" t="n">
-        <v>9648.00134753429</v>
+        <v>9427.49497139566</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4667</v>
       </c>
       <c r="I32" t="n">
-        <v>2978.51507103714</v>
+        <v>2910.70066680986</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>7475.84065594796</v>
+        <v>7334.94690946219</v>
       </c>
       <c r="C33" t="n">
-        <v>6161.15772723823</v>
+        <v>6123.72567208896</v>
       </c>
       <c r="D33" t="n">
-        <v>5465.20662401518</v>
+        <v>5482.54387989487</v>
       </c>
       <c r="E33" t="n">
-        <v>8790.5235846577</v>
+        <v>8546.16814683541</v>
       </c>
       <c r="F33" t="n">
-        <v>9486.47468788075</v>
+        <v>9187.34993902951</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4679</v>
       </c>
       <c r="I33" t="n">
-        <v>2796.84065594796</v>
+        <v>2655.94690946219</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7659.68241027529</v>
+        <v>7502.74070537831</v>
       </c>
       <c r="C34" t="n">
-        <v>6341.04798426693</v>
+        <v>6290.25047293852</v>
       </c>
       <c r="D34" t="n">
-        <v>5643.00508472987</v>
+        <v>5648.39691533447</v>
       </c>
       <c r="E34" t="n">
-        <v>8978.31683628365</v>
+        <v>8715.23093781811</v>
       </c>
       <c r="F34" t="n">
-        <v>9676.35973582071</v>
+        <v>9357.08449542216</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>4389</v>
       </c>
       <c r="I34" t="n">
-        <v>3270.68241027529</v>
+        <v>3113.74070537831</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7415.78673650415</v>
+        <v>7066.38674432444</v>
       </c>
       <c r="C35" t="n">
-        <v>6094.60558088017</v>
+        <v>5852.95332407086</v>
       </c>
       <c r="D35" t="n">
-        <v>5395.21452412064</v>
+        <v>5210.60047299824</v>
       </c>
       <c r="E35" t="n">
-        <v>8736.96789212812</v>
+        <v>8279.82016457802</v>
       </c>
       <c r="F35" t="n">
-        <v>9436.35894888766</v>
+        <v>8922.17301565065</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>3965</v>
       </c>
       <c r="I35" t="n">
-        <v>3450.78673650415</v>
+        <v>3101.38674432444</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8789.94402004332</v>
+        <v>8327.34755652535</v>
       </c>
       <c r="C36" t="n">
-        <v>7466.79161447049</v>
+        <v>7113.21452333956</v>
       </c>
       <c r="D36" t="n">
-        <v>6766.35704102212</v>
+        <v>6470.49131955195</v>
       </c>
       <c r="E36" t="n">
-        <v>10113.0964256162</v>
+        <v>9541.48058971113</v>
       </c>
       <c r="F36" t="n">
-        <v>10813.5309990645</v>
+        <v>10184.2037934987</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>4299</v>
       </c>
       <c r="I36" t="n">
-        <v>4490.94402004332</v>
+        <v>4028.34755652535</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>8460.27292684196</v>
+        <v>8372.39184777089</v>
       </c>
       <c r="C37" t="n">
-        <v>7135.55404181172</v>
+        <v>7157.74190806599</v>
       </c>
       <c r="D37" t="n">
-        <v>6434.29022422946</v>
+        <v>6514.74507049613</v>
       </c>
       <c r="E37" t="n">
-        <v>9784.99181187219</v>
+        <v>9587.04178747579</v>
       </c>
       <c r="F37" t="n">
-        <v>10486.2556294545</v>
+        <v>10230.0386250457</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>5264</v>
       </c>
       <c r="I37" t="n">
-        <v>3196.27292684196</v>
+        <v>3108.39184777089</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>4935.23868216613</v>
+        <v>5269.92181126041</v>
       </c>
       <c r="C38" t="n">
-        <v>3524.45580672951</v>
+        <v>4010.15200090878</v>
       </c>
       <c r="D38" t="n">
-        <v>2777.63246466945</v>
+        <v>3343.2701466036</v>
       </c>
       <c r="E38" t="n">
-        <v>6346.02155760275</v>
+        <v>6529.69162161204</v>
       </c>
       <c r="F38" t="n">
-        <v>7092.84489966281</v>
+        <v>7196.57347591722</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1815</v>
       </c>
       <c r="I38" t="n">
-        <v>3120.23868216613</v>
+        <v>3454.92181126041</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>4938.87602946749</v>
+        <v>5197.36598886891</v>
       </c>
       <c r="C39" t="n">
-        <v>3490.98649359703</v>
+        <v>3930.59081670016</v>
       </c>
       <c r="D39" t="n">
-        <v>2724.52007205225</v>
+        <v>3260.00054785742</v>
       </c>
       <c r="E39" t="n">
-        <v>6386.76556533795</v>
+        <v>6464.14116103767</v>
       </c>
       <c r="F39" t="n">
-        <v>7153.23198688274</v>
+        <v>7134.73142988041</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>4516</v>
       </c>
       <c r="I39" t="n">
-        <v>422.876029467492</v>
+        <v>681.365988868914</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>7389.64565785687</v>
+        <v>7485.43636148636</v>
       </c>
       <c r="C40" t="n">
-        <v>5935.19845641978</v>
+        <v>6213.46047317784</v>
       </c>
       <c r="D40" t="n">
-        <v>5165.26061641661</v>
+        <v>5540.11711151251</v>
       </c>
       <c r="E40" t="n">
-        <v>8844.09285929395</v>
+        <v>8757.41224979488</v>
       </c>
       <c r="F40" t="n">
-        <v>9614.03069929712</v>
+        <v>9430.75561146022</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,9 +1664,297 @@
         <v>5785</v>
       </c>
       <c r="I40" t="n">
-        <v>1604.64565785687</v>
+        <v>1700.43636148636</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7214.97310235886</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5939.13160813097</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5263.74191830129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8490.81459658675</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9166.20428641644</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4937</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2277.97310235886</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7589.50024993506</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6310.78313785303</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5633.87118788416</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8868.2173620171</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9545.12931198597</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5455</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2134.50024993506</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8023.32691289871</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6742.46954369983</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6064.42461005168</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9304.1842820976</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9982.22921574575</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5759</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2264.32691289871</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7972.18959057721</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6689.73896503014</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6010.85061241836</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9254.64021612427</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9933.52856873605</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4854</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3118.18959057721</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7735.31265897734</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6451.67619166536</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5772.16009234256</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9018.94912628932</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9698.46522561213</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5122</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2613.31265897734</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7905.34530555757</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6620.82686720878</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5940.84388062163</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9189.86374390636</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9869.84673049352</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5121</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2784.34530555757</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7460.88964847622</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6175.71629085064</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5495.38661094051</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8746.06300610181</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9426.39268601194</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5210</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2250.88964847622</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8723.51790496741</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7437.85974238884</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6757.27342223907</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10009.176067546</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10689.7623876958</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5664</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3059.51790496741</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8788.07440504157</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7502.0594615726</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6821.28427302813</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10074.0893485105</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10754.864537055</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5295</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3493.07440504157</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>
